--- a/biology/Zoologie/Cremastinae/Cremastinae.xlsx
+++ b/biology/Zoologie/Cremastinae/Cremastinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cremastides
 Les Cremastinae sont une sous-famille d'insectes hyménoptères de la famille des Ichneumonidae.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Cremastinae a été créée décrite par Arnold Förster en 1869[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Cremastinae a été créée décrite par Arnold Förster en 1869,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cremastinae sont des guêpes parasites mondiales et des endoparasitoïdes des Lépidoptères et, parfois, des larves de Coleoptera dans les tunnels, les enroulements, les bourgeons et les galles.
 </t>
@@ -574,14 +590,16 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib en 2023, la liste des genres est[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib en 2023, la liste des genres est :
 Celor Kokujev, 1901
 Cremastus Grevenhorst, 1829
 Dimophora Foerster, 1868 avec deux espèces fossiles :
 Dimophora longicornis Théobald, 1937
-Dimophora wickhami Cockerell, 1919[2]
+Dimophora wickhami Cockerell, 1919
 Eucremastoides Kolarov, 1980
 Eucremastus Szépligeti, 1905
 Gahus Gauld, 1984
@@ -620,10 +638,12 @@
           <t>Genres fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib et Paleobiology Database en 2023[2], le nombre de genres fossiles est de un{{|}} :
-Acourtia Cockerell, 1921[2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib et Paleobiology Database en 2023, le nombre de genres fossiles est de un{{|}} :
+Acourtia Cockerell, 1921</t>
         </is>
       </c>
     </row>
